--- a/BookMyShow/src/test/resources/excel/TestData.xlsx
+++ b/BookMyShow/src/test/resources/excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reshu Tripathi\git\BookMyShow\BookMyShow\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDD8485-AEC7-45CD-8D48-A8BD17815F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA781C-A17A-4616-A410-CA24BEB8EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{51CF7443-7B71-4EC1-9F6D-8F2A3AB4E34C}"/>
+    <workbookView xWindow="3384" yWindow="2964" windowWidth="17280" windowHeight="9024" xr2:uid="{51CF7443-7B71-4EC1-9F6D-8F2A3AB4E34C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,21 +449,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -471,10 +471,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -482,25 +479,28 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{1C4EDF73-9070-4CA7-9012-17DFD442D635}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{50B3F3F6-EA39-4F49-BF78-C9160B225F8C}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{EF56559B-3F0F-450A-A875-808E70B653F2}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{17F5305A-9C2B-40DA-82DC-0B4E04B1757E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{03D6A853-3BB5-4BD0-AAF5-D55C50DC03F4}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{8E99D57B-1C32-4DC0-B59D-7C69EAA7128B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
